--- a/BDs/BD/rep_BD_3.12w.xlsx
+++ b/BDs/BD/rep_BD_3.12w.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="79">
   <si>
     <t>ID</t>
   </si>
@@ -252,6 +252,9 @@
   </si>
   <si>
     <t>Dir_diagonal_std(%)</t>
+  </si>
+  <si>
+    <t>Dir_combined_std(%)</t>
   </si>
 </sst>
 </file>
@@ -7813,7 +7816,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V44"/>
+  <dimension ref="A1:W44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7830,10 +7833,10 @@
     <col min="16" max="16" width="9.140625" style="2"/>
     <col min="17" max="20" width="9.140625" style="3"/>
     <col min="21" max="21" width="9.140625" style="4"/>
-    <col min="22" max="22" width="9.140625" style="5"/>
+    <col min="22" max="23" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7900,8 +7903,11 @@
       <c r="V1" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="2" spans="1:22">
+      <c r="W1" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -7968,8 +7974,11 @@
       <c r="V2" s="5">
         <v>0.132997618758195</v>
       </c>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="W2" s="5">
+        <v>0.1962723351162232</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -8036,8 +8045,11 @@
       <c r="V3" s="5">
         <v>0.1472191045899373</v>
       </c>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="W3" s="5">
+        <v>0.2251927759552825</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -8104,8 +8116,11 @@
       <c r="V4" s="5">
         <v>0.1363908873905755</v>
       </c>
-    </row>
-    <row r="5" spans="1:22">
+      <c r="W4" s="5">
+        <v>0.2124795088494757</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -8172,8 +8187,11 @@
       <c r="V5" s="5">
         <v>0.2227796604538683</v>
       </c>
-    </row>
-    <row r="6" spans="1:22">
+      <c r="W5" s="5">
+        <v>0.4001431523364702</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -8240,8 +8258,11 @@
       <c r="V6" s="5">
         <v>0.1748683857033469</v>
       </c>
-    </row>
-    <row r="7" spans="1:22">
+      <c r="W6" s="5">
+        <v>0.2682386040547591</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -8308,8 +8329,11 @@
       <c r="V7" s="5">
         <v>0.1544726588287288</v>
       </c>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="W7" s="5">
+        <v>0.1796969065392495</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -8376,8 +8400,11 @@
       <c r="V8" s="5">
         <v>0.2046620139747202</v>
       </c>
-    </row>
-    <row r="9" spans="1:22">
+      <c r="W8" s="5">
+        <v>0.2285710259877569</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -8444,8 +8471,11 @@
       <c r="V9" s="5">
         <v>0.1467124300078418</v>
       </c>
-    </row>
-    <row r="10" spans="1:22">
+      <c r="W9" s="5">
+        <v>0.1849152702568937</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -8512,8 +8542,11 @@
       <c r="V10" s="5">
         <v>0.3030038296362147</v>
       </c>
-    </row>
-    <row r="11" spans="1:22">
+      <c r="W10" s="5">
+        <v>0.5907804561104066</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -8580,8 +8613,11 @@
       <c r="V11" s="5">
         <v>0.2258147681654613</v>
       </c>
-    </row>
-    <row r="12" spans="1:22">
+      <c r="W11" s="5">
+        <v>0.394081300397893</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -8648,8 +8684,11 @@
       <c r="V12" s="5">
         <v>0.2515171278195477</v>
       </c>
-    </row>
-    <row r="13" spans="1:22">
+      <c r="W12" s="5">
+        <v>0.3459638126506921</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -8716,8 +8755,11 @@
       <c r="V13" s="5">
         <v>0.1653124964221322</v>
       </c>
-    </row>
-    <row r="14" spans="1:22">
+      <c r="W13" s="5">
+        <v>0.2950599951763147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -8784,8 +8826,11 @@
       <c r="V14" s="5">
         <v>0.2359463742295556</v>
       </c>
-    </row>
-    <row r="15" spans="1:22">
+      <c r="W14" s="5">
+        <v>0.3391956089921356</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -8852,8 +8897,11 @@
       <c r="V15" s="5">
         <v>1.72235952951307</v>
       </c>
-    </row>
-    <row r="16" spans="1:22">
+      <c r="W15" s="5">
+        <v>2.121293576946665</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -8920,8 +8968,11 @@
       <c r="V16" s="5">
         <v>0.7974864029926281</v>
       </c>
-    </row>
-    <row r="17" spans="1:22">
+      <c r="W16" s="5">
+        <v>1.080493506484487</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -8988,8 +9039,11 @@
       <c r="V17" s="5">
         <v>0.1978570870806333</v>
       </c>
-    </row>
-    <row r="18" spans="1:22">
+      <c r="W17" s="5">
+        <v>0.2202993278614924</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -9056,8 +9110,11 @@
       <c r="V18" s="5">
         <v>0.1580873119386202</v>
       </c>
-    </row>
-    <row r="19" spans="1:22">
+      <c r="W18" s="5">
+        <v>0.166941211263253</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -9124,8 +9181,11 @@
       <c r="V19" s="5">
         <v>0.2055836482385613</v>
       </c>
-    </row>
-    <row r="20" spans="1:22">
+      <c r="W19" s="5">
+        <v>0.2242844604478501</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -9192,8 +9252,11 @@
       <c r="V20" s="5">
         <v>1.337731199663113</v>
       </c>
-    </row>
-    <row r="21" spans="1:22">
+      <c r="W20" s="5">
+        <v>1.799098139287484</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -9260,8 +9323,11 @@
       <c r="V21" s="5">
         <v>0.501241309329139</v>
       </c>
-    </row>
-    <row r="22" spans="1:22">
+      <c r="W21" s="5">
+        <v>0.8092071464975714</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -9328,8 +9394,11 @@
       <c r="V22" s="5">
         <v>0.4726505235470987</v>
       </c>
-    </row>
-    <row r="23" spans="1:22">
+      <c r="W22" s="5">
+        <v>0.5585421901789788</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -9396,8 +9465,11 @@
       <c r="V23" s="5">
         <v>0.1958155540536665</v>
       </c>
-    </row>
-    <row r="24" spans="1:22">
+      <c r="W23" s="5">
+        <v>0.2321877749363208</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -9464,8 +9536,11 @@
       <c r="V24" s="5">
         <v>0.5263837663609344</v>
       </c>
-    </row>
-    <row r="25" spans="1:22">
+      <c r="W24" s="5">
+        <v>0.5907739366021141</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -9532,8 +9607,11 @@
       <c r="V25" s="5">
         <v>0.1943397038001824</v>
       </c>
-    </row>
-    <row r="26" spans="1:22">
+      <c r="W25" s="5">
+        <v>0.2012077682341937</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
       <c r="A26" t="s">
         <v>38</v>
       </c>
@@ -9600,8 +9678,11 @@
       <c r="V26" s="5">
         <v>0.2712667676125629</v>
       </c>
-    </row>
-    <row r="27" spans="1:22">
+      <c r="W26" s="5">
+        <v>0.2877776278412361</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -9668,8 +9749,11 @@
       <c r="V27" s="5">
         <v>0.8283839916563417</v>
       </c>
-    </row>
-    <row r="28" spans="1:22">
+      <c r="W27" s="5">
+        <v>0.9220359042763027</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -9736,8 +9820,11 @@
       <c r="V28" s="5">
         <v>0.8283839916563417</v>
       </c>
-    </row>
-    <row r="29" spans="1:22">
+      <c r="W28" s="5">
+        <v>0.9220359042763027</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -9804,8 +9891,11 @@
       <c r="V29" s="5">
         <v>0.8283839916563417</v>
       </c>
-    </row>
-    <row r="30" spans="1:22">
+      <c r="W29" s="5">
+        <v>0.9220359042763027</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
       <c r="A30" t="s">
         <v>42</v>
       </c>
@@ -9872,8 +9962,11 @@
       <c r="V30" s="5">
         <v>0.3332473535090435</v>
       </c>
-    </row>
-    <row r="31" spans="1:22">
+      <c r="W30" s="5">
+        <v>0.3570849487590914</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
       <c r="A31" t="s">
         <v>43</v>
       </c>
@@ -9940,8 +10033,11 @@
       <c r="V31" s="5">
         <v>0.2839782980323847</v>
       </c>
-    </row>
-    <row r="32" spans="1:22">
+      <c r="W31" s="5">
+        <v>0.2951774536383174</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
       <c r="A32" t="s">
         <v>44</v>
       </c>
@@ -10008,8 +10104,11 @@
       <c r="V32" s="5">
         <v>0.7889506072946353</v>
       </c>
-    </row>
-    <row r="33" spans="1:22">
+      <c r="W32" s="5">
+        <v>0.835864976977732</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
       <c r="A33" t="s">
         <v>45</v>
       </c>
@@ -10076,8 +10175,11 @@
       <c r="V33" s="5">
         <v>0.3203417633737086</v>
       </c>
-    </row>
-    <row r="34" spans="1:22">
+      <c r="W33" s="5">
+        <v>0.3272360995332287</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
       <c r="A34" t="s">
         <v>46</v>
       </c>
@@ -10144,8 +10246,11 @@
       <c r="V34" s="5">
         <v>0.612860039041862</v>
       </c>
-    </row>
-    <row r="35" spans="1:22">
+      <c r="W34" s="5">
+        <v>0.6360351747181519</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
       <c r="A35" t="s">
         <v>47</v>
       </c>
@@ -10212,8 +10317,11 @@
       <c r="V35" s="5">
         <v>0.07820680281967983</v>
       </c>
-    </row>
-    <row r="36" spans="1:22">
+      <c r="W35" s="5">
+        <v>0.09472872893817486</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
       <c r="A36" t="s">
         <v>48</v>
       </c>
@@ -10280,8 +10388,11 @@
       <c r="V36" s="5">
         <v>0.0782093092873043</v>
       </c>
-    </row>
-    <row r="37" spans="1:22">
+      <c r="W36" s="5">
+        <v>0.09419147496753764</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
       <c r="A37" t="s">
         <v>49</v>
       </c>
@@ -10348,8 +10459,11 @@
       <c r="V37" s="5">
         <v>0.0782093092873043</v>
       </c>
-    </row>
-    <row r="38" spans="1:22">
+      <c r="W37" s="5">
+        <v>0.09419147496753764</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
       <c r="A38" t="s">
         <v>50</v>
       </c>
@@ -10416,8 +10530,11 @@
       <c r="V38" s="5">
         <v>0.0782093092873043</v>
       </c>
-    </row>
-    <row r="39" spans="1:22">
+      <c r="W38" s="5">
+        <v>0.09419147496753764</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
       <c r="A39" t="s">
         <v>51</v>
       </c>
@@ -10484,8 +10601,11 @@
       <c r="V39" s="5">
         <v>0.1683328285224427</v>
       </c>
-    </row>
-    <row r="40" spans="1:22">
+      <c r="W39" s="5">
+        <v>0.1736989785764348</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
       <c r="A40" t="s">
         <v>52</v>
       </c>
@@ -10552,8 +10672,11 @@
       <c r="V40" s="5">
         <v>2.126148483393442</v>
       </c>
-    </row>
-    <row r="41" spans="1:22">
+      <c r="W40" s="5">
+        <v>2.396326288803541</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
       <c r="A41" t="s">
         <v>53</v>
       </c>
@@ -10620,8 +10743,11 @@
       <c r="V41" s="5">
         <v>0.08713913290380408</v>
       </c>
-    </row>
-    <row r="42" spans="1:22">
+      <c r="W41" s="5">
+        <v>0.1733845441590516</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
       <c r="A42" t="s">
         <v>54</v>
       </c>
@@ -10688,8 +10814,11 @@
       <c r="V42" s="5">
         <v>0.9031259663158507</v>
       </c>
-    </row>
-    <row r="43" spans="1:22">
+      <c r="W42" s="5">
+        <v>0.9440782599505766</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23">
       <c r="A43" t="s">
         <v>55</v>
       </c>
@@ -10756,8 +10885,11 @@
       <c r="V43" s="5">
         <v>0.6919330095072393</v>
       </c>
-    </row>
-    <row r="44" spans="1:22">
+      <c r="W43" s="5">
+        <v>0.8181525958470311</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23">
       <c r="A44" t="s">
         <v>56</v>
       </c>
@@ -10823,6 +10955,9 @@
       </c>
       <c r="V44" s="5">
         <v>1.095943864652406</v>
+      </c>
+      <c r="W44" s="5">
+        <v>1.232406012506942</v>
       </c>
     </row>
   </sheetData>

--- a/BDs/BD/rep_BD_3.12w.xlsx
+++ b/BDs/BD/rep_BD_3.12w.xlsx
@@ -26765,13 +26765,13 @@
         <v>2.283842356034602E-15</v>
       </c>
       <c r="D57">
+        <v>9293</v>
+      </c>
+      <c r="E57">
         <v>8254</v>
       </c>
-      <c r="E57">
-        <v>9293</v>
-      </c>
       <c r="F57">
-        <v>-0.033298</v>
+        <v>0.033298</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -26785,13 +26785,13 @@
         <v>1.781056623437984E-09</v>
       </c>
       <c r="D58">
+        <v>9031</v>
+      </c>
+      <c r="E58">
         <v>8254</v>
       </c>
-      <c r="E58">
-        <v>9031</v>
-      </c>
       <c r="F58">
-        <v>-0.024901</v>
+        <v>0.024901</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -26825,13 +26825,13 @@
         <v>5.196778860731446E-18</v>
       </c>
       <c r="D60">
+        <v>9393</v>
+      </c>
+      <c r="E60">
         <v>8254</v>
       </c>
-      <c r="E60">
-        <v>9393</v>
-      </c>
       <c r="F60">
-        <v>-0.036503</v>
+        <v>0.036503</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -26845,13 +26845,13 @@
         <v>1.181510511922532E-08</v>
       </c>
       <c r="D61">
+        <v>8988</v>
+      </c>
+      <c r="E61">
         <v>8254</v>
       </c>
-      <c r="E61">
-        <v>8988</v>
-      </c>
       <c r="F61">
-        <v>-0.023523</v>
+        <v>0.023523</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -26965,13 +26965,13 @@
         <v>0.004639099087233709</v>
       </c>
       <c r="D67">
+        <v>9330</v>
+      </c>
+      <c r="E67">
         <v>8977</v>
       </c>
-      <c r="E67">
-        <v>9330</v>
-      </c>
       <c r="F67">
-        <v>-0.011313</v>
+        <v>0.011313</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -27085,13 +27085,13 @@
         <v>0</v>
       </c>
       <c r="D73">
+        <v>11913</v>
+      </c>
+      <c r="E73">
         <v>0</v>
       </c>
-      <c r="E73">
-        <v>11913</v>
-      </c>
       <c r="F73">
-        <v>-0.38179</v>
+        <v>0.38179</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -27105,13 +27105,13 @@
         <v>0</v>
       </c>
       <c r="D74">
+        <v>9925</v>
+      </c>
+      <c r="E74">
         <v>0</v>
       </c>
-      <c r="E74">
-        <v>9925</v>
-      </c>
       <c r="F74">
-        <v>-0.318078</v>
+        <v>0.318078</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -27185,13 +27185,13 @@
         <v>0</v>
       </c>
       <c r="D78">
+        <v>11916</v>
+      </c>
+      <c r="E78">
         <v>0</v>
       </c>
-      <c r="E78">
-        <v>11916</v>
-      </c>
       <c r="F78">
-        <v>-0.381886</v>
+        <v>0.381886</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -27205,13 +27205,13 @@
         <v>0</v>
       </c>
       <c r="D79">
+        <v>9929</v>
+      </c>
+      <c r="E79">
         <v>0</v>
       </c>
-      <c r="E79">
-        <v>9929</v>
-      </c>
       <c r="F79">
-        <v>-0.318207</v>
+        <v>0.318207</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -27285,13 +27285,13 @@
         <v>0</v>
       </c>
       <c r="D83">
+        <v>11921</v>
+      </c>
+      <c r="E83">
         <v>0</v>
       </c>
-      <c r="E83">
-        <v>11921</v>
-      </c>
       <c r="F83">
-        <v>-0.382047</v>
+        <v>0.382047</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -27305,13 +27305,13 @@
         <v>0</v>
       </c>
       <c r="D84">
+        <v>9925</v>
+      </c>
+      <c r="E84">
         <v>0</v>
       </c>
-      <c r="E84">
-        <v>9925</v>
-      </c>
       <c r="F84">
-        <v>-0.318078</v>
+        <v>0.318078</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -27425,13 +27425,13 @@
         <v>0</v>
       </c>
       <c r="D90">
+        <v>12122</v>
+      </c>
+      <c r="E90">
         <v>0</v>
       </c>
-      <c r="E90">
-        <v>12122</v>
-      </c>
       <c r="F90">
-        <v>-0.388501</v>
+        <v>0.388501</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -27445,13 +27445,13 @@
         <v>0</v>
       </c>
       <c r="D91">
+        <v>10029</v>
+      </c>
+      <c r="E91">
         <v>0</v>
       </c>
-      <c r="E91">
-        <v>10029</v>
-      </c>
       <c r="F91">
-        <v>-0.321422</v>
+        <v>0.321422</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -27525,13 +27525,13 @@
         <v>0</v>
       </c>
       <c r="D95">
+        <v>12040</v>
+      </c>
+      <c r="E95">
         <v>0</v>
       </c>
-      <c r="E95">
-        <v>12040</v>
-      </c>
       <c r="F95">
-        <v>-0.385885</v>
+        <v>0.385885</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -27545,13 +27545,13 @@
         <v>0</v>
       </c>
       <c r="D96">
+        <v>9763</v>
+      </c>
+      <c r="E96">
         <v>0</v>
       </c>
-      <c r="E96">
-        <v>9763</v>
-      </c>
       <c r="F96">
-        <v>-0.312907</v>
+        <v>0.312907</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -28112,13 +28112,13 @@
         <v>7.764564157231546E-06</v>
       </c>
       <c r="D58">
+        <v>3853</v>
+      </c>
+      <c r="E58">
         <v>3482</v>
       </c>
-      <c r="E58">
-        <v>3853</v>
-      </c>
       <c r="F58">
-        <v>-0.01189</v>
+        <v>0.01189</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -28132,13 +28132,13 @@
         <v>0.001953378518276253</v>
       </c>
       <c r="D59">
+        <v>3728</v>
+      </c>
+      <c r="E59">
         <v>3482</v>
       </c>
-      <c r="E59">
-        <v>3728</v>
-      </c>
       <c r="F59">
-        <v>-0.007884</v>
+        <v>0.007884</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -28152,13 +28152,13 @@
         <v>0.003594918790021619</v>
       </c>
       <c r="D60">
+        <v>4209</v>
+      </c>
+      <c r="E60">
         <v>3965</v>
       </c>
-      <c r="E60">
-        <v>4209</v>
-      </c>
       <c r="F60">
-        <v>-0.007820000000000001</v>
+        <v>0.007820000000000001</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -28172,13 +28172,13 @@
         <v>0.001171595852954751</v>
       </c>
       <c r="D61">
+        <v>3839</v>
+      </c>
+      <c r="E61">
         <v>3576</v>
       </c>
-      <c r="E61">
-        <v>3839</v>
-      </c>
       <c r="F61">
-        <v>-0.008429000000000001</v>
+        <v>0.008429000000000001</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -28192,13 +28192,13 @@
         <v>0.005373610701922452</v>
       </c>
       <c r="D62">
+        <v>3796</v>
+      </c>
+      <c r="E62">
         <v>3576</v>
       </c>
-      <c r="E62">
-        <v>3796</v>
-      </c>
       <c r="F62">
-        <v>-0.007051</v>
+        <v>0.007051</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -28232,13 +28232,13 @@
         <v>6.484492965459708E-05</v>
       </c>
       <c r="D64">
+        <v>3770</v>
+      </c>
+      <c r="E64">
         <v>3444</v>
       </c>
-      <c r="E64">
-        <v>3770</v>
-      </c>
       <c r="F64">
-        <v>-0.010448</v>
+        <v>0.010448</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -28412,13 +28412,13 @@
         <v>0.002183290505759072</v>
       </c>
       <c r="D73">
+        <v>3606</v>
+      </c>
+      <c r="E73">
         <v>3367</v>
       </c>
-      <c r="E73">
-        <v>3606</v>
-      </c>
       <c r="F73">
-        <v>-0.00766</v>
+        <v>0.00766</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -28972,13 +28972,13 @@
         <v>0.008241520494080662</v>
       </c>
       <c r="D101">
+        <v>4756</v>
+      </c>
+      <c r="E101">
         <v>4524</v>
       </c>
-      <c r="E101">
-        <v>4756</v>
-      </c>
       <c r="F101">
-        <v>-0.007435</v>
+        <v>0.007435</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -28992,13 +28992,13 @@
         <v>0.0001258047903911578</v>
       </c>
       <c r="D102">
+        <v>3329</v>
+      </c>
+      <c r="E102">
         <v>3036</v>
       </c>
-      <c r="E102">
-        <v>3329</v>
-      </c>
       <c r="F102">
-        <v>-0.009390000000000001</v>
+        <v>0.009390000000000001</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -29032,13 +29032,13 @@
         <v>1.054426170553419E-06</v>
       </c>
       <c r="D104">
+        <v>4915</v>
+      </c>
+      <c r="E104">
         <v>4455</v>
       </c>
-      <c r="E104">
-        <v>4915</v>
-      </c>
       <c r="F104">
-        <v>-0.014742</v>
+        <v>0.014742</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -29052,13 +29052,13 @@
         <v>9.07738573304847E-07</v>
       </c>
       <c r="D105">
+        <v>4918</v>
+      </c>
+      <c r="E105">
         <v>4455</v>
       </c>
-      <c r="E105">
-        <v>4918</v>
-      </c>
       <c r="F105">
-        <v>-0.014838</v>
+        <v>0.014838</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -29072,13 +29072,13 @@
         <v>2.971545920382819E-09</v>
       </c>
       <c r="D106">
+        <v>4915</v>
+      </c>
+      <c r="E106">
         <v>4354</v>
       </c>
-      <c r="E106">
-        <v>4915</v>
-      </c>
       <c r="F106">
-        <v>-0.017979</v>
+        <v>0.017979</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -29092,13 +29092,13 @@
         <v>2.478748375364459E-09</v>
       </c>
       <c r="D107">
+        <v>4918</v>
+      </c>
+      <c r="E107">
         <v>4354</v>
       </c>
-      <c r="E107">
-        <v>4918</v>
-      </c>
       <c r="F107">
-        <v>-0.018075</v>
+        <v>0.018075</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -29112,13 +29112,13 @@
         <v>0.0001258047903911578</v>
       </c>
       <c r="D108">
+        <v>3329</v>
+      </c>
+      <c r="E108">
         <v>3036</v>
       </c>
-      <c r="E108">
-        <v>3329</v>
-      </c>
       <c r="F108">
-        <v>-0.009390000000000001</v>
+        <v>0.009390000000000001</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -29152,13 +29152,13 @@
         <v>1.054426170553419E-06</v>
       </c>
       <c r="D110">
+        <v>4915</v>
+      </c>
+      <c r="E110">
         <v>4455</v>
       </c>
-      <c r="E110">
-        <v>4915</v>
-      </c>
       <c r="F110">
-        <v>-0.014742</v>
+        <v>0.014742</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -29172,13 +29172,13 @@
         <v>9.07738573304847E-07</v>
       </c>
       <c r="D111">
+        <v>4918</v>
+      </c>
+      <c r="E111">
         <v>4455</v>
       </c>
-      <c r="E111">
-        <v>4918</v>
-      </c>
       <c r="F111">
-        <v>-0.014838</v>
+        <v>0.014838</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -29192,13 +29192,13 @@
         <v>2.971545920382819E-09</v>
       </c>
       <c r="D112">
+        <v>4915</v>
+      </c>
+      <c r="E112">
         <v>4354</v>
       </c>
-      <c r="E112">
-        <v>4915</v>
-      </c>
       <c r="F112">
-        <v>-0.017979</v>
+        <v>0.017979</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -29212,13 +29212,13 @@
         <v>2.478748375364459E-09</v>
       </c>
       <c r="D113">
+        <v>4918</v>
+      </c>
+      <c r="E113">
         <v>4354</v>
       </c>
-      <c r="E113">
-        <v>4918</v>
-      </c>
       <c r="F113">
-        <v>-0.018075</v>
+        <v>0.018075</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -29232,13 +29232,13 @@
         <v>0.0001258047903911578</v>
       </c>
       <c r="D114">
+        <v>3329</v>
+      </c>
+      <c r="E114">
         <v>3036</v>
       </c>
-      <c r="E114">
-        <v>3329</v>
-      </c>
       <c r="F114">
-        <v>-0.009390000000000001</v>
+        <v>0.009390000000000001</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -29272,13 +29272,13 @@
         <v>1.054426170553419E-06</v>
       </c>
       <c r="D116">
+        <v>4915</v>
+      </c>
+      <c r="E116">
         <v>4455</v>
       </c>
-      <c r="E116">
-        <v>4915</v>
-      </c>
       <c r="F116">
-        <v>-0.014742</v>
+        <v>0.014742</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -29292,13 +29292,13 @@
         <v>9.07738573304847E-07</v>
       </c>
       <c r="D117">
+        <v>4918</v>
+      </c>
+      <c r="E117">
         <v>4455</v>
       </c>
-      <c r="E117">
-        <v>4918</v>
-      </c>
       <c r="F117">
-        <v>-0.014838</v>
+        <v>0.014838</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -29312,13 +29312,13 @@
         <v>2.971545920382819E-09</v>
       </c>
       <c r="D118">
+        <v>4915</v>
+      </c>
+      <c r="E118">
         <v>4354</v>
       </c>
-      <c r="E118">
-        <v>4915</v>
-      </c>
       <c r="F118">
-        <v>-0.017979</v>
+        <v>0.017979</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -29332,13 +29332,13 @@
         <v>2.478748375364459E-09</v>
       </c>
       <c r="D119">
+        <v>4918</v>
+      </c>
+      <c r="E119">
         <v>4354</v>
       </c>
-      <c r="E119">
-        <v>4918</v>
-      </c>
       <c r="F119">
-        <v>-0.018075</v>
+        <v>0.018075</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -29612,13 +29612,13 @@
         <v>2.849695520262064E-05</v>
       </c>
       <c r="D133">
+        <v>3633</v>
+      </c>
+      <c r="E133">
         <v>3297</v>
       </c>
-      <c r="E133">
-        <v>3633</v>
-      </c>
       <c r="F133">
-        <v>-0.010769</v>
+        <v>0.010769</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -29792,13 +29792,13 @@
         <v>0.001586947128803112</v>
       </c>
       <c r="D142">
+        <v>3346</v>
+      </c>
+      <c r="E142">
         <v>3108</v>
       </c>
-      <c r="E142">
-        <v>3346</v>
-      </c>
       <c r="F142">
-        <v>-0.007628</v>
+        <v>0.007628</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -29812,13 +29812,13 @@
         <v>3.524727967919304E-12</v>
       </c>
       <c r="D143">
+        <v>4938</v>
+      </c>
+      <c r="E143">
         <v>4279</v>
       </c>
-      <c r="E143">
-        <v>4938</v>
-      </c>
       <c r="F143">
-        <v>-0.02112</v>
+        <v>0.02112</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -29832,13 +29832,13 @@
         <v>1.153487662703987E-07</v>
       </c>
       <c r="D144">
+        <v>4772</v>
+      </c>
+      <c r="E144">
         <v>4279</v>
       </c>
-      <c r="E144">
-        <v>4772</v>
-      </c>
       <c r="F144">
-        <v>-0.0158</v>
+        <v>0.0158</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -29852,13 +29852,13 @@
         <v>1.52107194071113E-10</v>
       </c>
       <c r="D145">
+        <v>4938</v>
+      </c>
+      <c r="E145">
         <v>4331</v>
       </c>
-      <c r="E145">
-        <v>4938</v>
-      </c>
       <c r="F145">
-        <v>-0.019454</v>
+        <v>0.019454</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -29872,13 +29872,13 @@
         <v>1.988798372968594E-06</v>
       </c>
       <c r="D146">
+        <v>4772</v>
+      </c>
+      <c r="E146">
         <v>4331</v>
       </c>
-      <c r="E146">
-        <v>4772</v>
-      </c>
       <c r="F146">
-        <v>-0.014134</v>
+        <v>0.014134</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -29892,13 +29892,13 @@
         <v>0.003239859648369555</v>
       </c>
       <c r="D147">
+        <v>3316</v>
+      </c>
+      <c r="E147">
         <v>3097</v>
       </c>
-      <c r="E147">
-        <v>3316</v>
-      </c>
       <c r="F147">
-        <v>-0.007019</v>
+        <v>0.007019</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -29912,13 +29912,13 @@
         <v>0.005573180935712399</v>
       </c>
       <c r="D148">
+        <v>3301</v>
+      </c>
+      <c r="E148">
         <v>3097</v>
       </c>
-      <c r="E148">
-        <v>3301</v>
-      </c>
       <c r="F148">
-        <v>-0.006538</v>
+        <v>0.006538</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -29952,13 +29952,13 @@
         <v>6.038429181315774E-05</v>
       </c>
       <c r="D150">
+        <v>3301</v>
+      </c>
+      <c r="E150">
         <v>2995</v>
       </c>
-      <c r="E150">
-        <v>3301</v>
-      </c>
       <c r="F150">
-        <v>-0.009807</v>
+        <v>0.009807</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -29972,13 +29972,13 @@
         <v>1.641479788160282E-06</v>
       </c>
       <c r="D151">
+        <v>4884</v>
+      </c>
+      <c r="E151">
         <v>4434</v>
       </c>
-      <c r="E151">
-        <v>4884</v>
-      </c>
       <c r="F151">
-        <v>-0.014423</v>
+        <v>0.014423</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -29992,13 +29992,13 @@
         <v>0.0001231462102451438</v>
       </c>
       <c r="D152">
+        <v>4787</v>
+      </c>
+      <c r="E152">
         <v>4434</v>
       </c>
-      <c r="E152">
-        <v>4787</v>
-      </c>
       <c r="F152">
-        <v>-0.011314</v>
+        <v>0.011314</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -30012,13 +30012,13 @@
         <v>1.285169876301873E-07</v>
       </c>
       <c r="D153">
+        <v>4884</v>
+      </c>
+      <c r="E153">
         <v>4387</v>
       </c>
-      <c r="E153">
-        <v>4884</v>
-      </c>
       <c r="F153">
-        <v>-0.015929</v>
+        <v>0.015929</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -30032,13 +30032,13 @@
         <v>1.547425234022528E-05</v>
       </c>
       <c r="D154">
+        <v>4787</v>
+      </c>
+      <c r="E154">
         <v>4387</v>
       </c>
-      <c r="E154">
-        <v>4787</v>
-      </c>
       <c r="F154">
-        <v>-0.01282</v>
+        <v>0.01282</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -30212,13 +30212,13 @@
         <v>2.762317615020389E-07</v>
       </c>
       <c r="D163">
+        <v>5076</v>
+      </c>
+      <c r="E163">
         <v>4583</v>
       </c>
-      <c r="E163">
-        <v>5076</v>
-      </c>
       <c r="F163">
-        <v>-0.015801</v>
+        <v>0.015801</v>
       </c>
     </row>
   </sheetData>
